--- a/biology/Zoologie/Crapaud_vert/Crapaud_vert.xlsx
+++ b/biology/Zoologie/Crapaud_vert/Crapaud_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bufotes viridis
-Bufotes viridis, le Crapaud vert, est une espèce d'amphibiens de la famille des Bufonidae[1].
+Bufotes viridis, le Crapaud vert, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 2 000 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 2 000 m d'altitude, :
 dans l'est de la France et en Corse, en Allemagne, en Autriche, en République tchèque, en Hongrie et en Slovaquie ;
 en Pologne, en Lituanie, en Lettonie, en Estonie et en Biélorussie ;
 dans l'Extrême Nord-Est de l'Italie, en Slovénie, en Croatie, en Bosnie-Herzégovine, en Serbie, au Monténégro, au Kosovo, en Macédoine et en Albanie ;
 en Grèce, en Bulgarie, en Roumanie, en Moldavie, en Ukraine, dans l'ouest de la Russie et au Kazakhstan.
-au Danemark et en Suède, elle est présente sur quelques petites îles du Comté de Scanie et sur l'îlot artificiel de Peberholm[3].
+au Danemark et en Suède, elle est présente sur quelques petites îles du Comté de Scanie et sur l'îlot artificiel de Peberholm.
 Elle a disparu de Suisse.
 </t>
         </is>
@@ -549,7 +563,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crapaud vert vit dans des terres sableuses.
 </t>
@@ -580,9 +596,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un crapaud de 48 à 120 mm de long[2], robuste, à la peau verruqueuse, couverte de taches verdâtres. La femelle est plus grande.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un crapaud de 48 à 120 mm de long, robuste, à la peau verruqueuse, couverte de taches verdâtres. La femelle est plus grande.
 C'est une espèce au comportement plutôt nocturne.
 </t>
         </is>
@@ -612,9 +630,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au printemps, le crapaud vert sort de son terrier et il va se reproduire dans les mares[4]. Les femelles pondent de 10 000 à 12 000 œufs en cordons gélatineux (les œufs sont groupés 2 par 2).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au printemps, le crapaud vert sort de son terrier et il va se reproduire dans les mares. Les femelles pondent de 10 000 à 12 000 œufs en cordons gélatineux (les œufs sont groupés 2 par 2).
 </t>
         </is>
       </c>
@@ -643,9 +663,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces Bufotes balearicus et Bufotes boulengeri étaient considérées comme synonymes de Bufotes viridis, le crapaud vert, jusqu'en 2006[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces Bufotes balearicus et Bufotes boulengeri étaient considérées comme synonymes de Bufotes viridis, le crapaud vert, jusqu'en 2006.
 </t>
         </is>
       </c>
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum, Vienna Joan Thomae, p. 1-217 (texte intégral).</t>
         </is>
